--- a/IPV_articles_ICR.xlsx
+++ b/IPV_articles_ICR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaka\Documents\Studium\Seminararbeit\IPV_seminararbeit\Newspaper-IPV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaka\Documents\Studium\Seminararbeit\IPV_seminararbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE8C2314-B604-481D-A17E-B0EE1323EC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24B00EA-FF21-4B8A-81D3-1924E5B1C5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A910C0CE-50E4-4733-84D4-161CE1B4E7EB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="304">
   <si>
     <t>Title</t>
   </si>
@@ -489,9 +489,6 @@
     <t>Claudia Detsch, Jürgen Mahnke</t>
   </si>
   <si>
-    <t>3 (Alkohol)</t>
-  </si>
-  <si>
     <t>Ex getötet: Killer lief mit blutigen Händen durch Berlins Straßen</t>
   </si>
   <si>
@@ -690,9 +687,6 @@
     <t>1 (only woman is IPV victim)</t>
   </si>
   <si>
-    <t>2 (title) , 1 (text)</t>
-  </si>
-  <si>
     <t>Mann bringt Ehefrau und Schwägerin um: Täter war für häusliche Gewalt bekannt</t>
   </si>
   <si>
@@ -807,9 +801,6 @@
     <t>Anja Wieberneit</t>
   </si>
   <si>
-    <t>2 ("über sie hergefallen")</t>
-  </si>
-  <si>
     <t>Mordkommission ermittelt: Mann sticht auf getrennt lebende Ehefrau ein</t>
   </si>
   <si>
@@ -822,9 +813,6 @@
     <t>Jana Godau, Mirko Voltmer</t>
   </si>
   <si>
-    <t>1 (title), 2 (text)</t>
-  </si>
-  <si>
     <t>Mülheim: Ehemann gesteht Tötung seiner Frau</t>
   </si>
   <si>
@@ -841,9 +829,6 @@
   </si>
   <si>
     <t>Thilo Scholtyseck</t>
-  </si>
-  <si>
-    <t>1 (title), 2(text)</t>
   </si>
   <si>
     <t>Mutter von sechs Kindern mit Halsstichen getötet</t>
@@ -935,9 +920,6 @@
     <t>Polizist tötet seine Partnerin und sich selbst</t>
   </si>
   <si>
-    <t>2 (title), 1 (text)</t>
-  </si>
-  <si>
     <t>Prozess in Leipzig: Junge Mutter im Schlaf erstochen</t>
   </si>
   <si>
@@ -962,9 +944,6 @@
     <t>Schottland: Postbote ersticht und enthauptet Freundin (21)</t>
   </si>
   <si>
-    <t>2 (drugs)</t>
-  </si>
-  <si>
     <t>Schwangere Frau von Ehemann brutal attackiert</t>
   </si>
   <si>
@@ -1026,9 +1005,6 @@
   </si>
   <si>
     <t>Sexuelle Gewalt</t>
-  </si>
-  <si>
-    <t>2 (Bild mit Kopftuch)</t>
   </si>
   <si>
     <r>
@@ -1255,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1401,91 +1377,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2098,8 +2003,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3D7A39-476A-4D89-896D-921E27E21634}">
   <dimension ref="A1:Y268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="K221" sqref="K221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2126,7 +2033,7 @@
     <col min="20" max="20" width="13.77734375" style="8" customWidth="1"/>
     <col min="21" max="21" width="19.77734375" style="8" customWidth="1"/>
     <col min="22" max="22" width="24" style="5" customWidth="1"/>
-    <col min="23" max="23" width="20.33203125" style="8" customWidth="1"/>
+    <col min="23" max="23" width="20.33203125" style="50" customWidth="1"/>
     <col min="24" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
@@ -2197,7 +2104,7 @@
       <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="49" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2264,7 +2171,7 @@
       <c r="V2" s="6">
         <v>5</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="50">
         <v>2</v>
       </c>
     </row>
@@ -2333,7 +2240,7 @@
       <c r="V3" s="10">
         <v>5</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="51">
         <v>2</v>
       </c>
     </row>
@@ -2402,7 +2309,7 @@
       <c r="V4" s="6">
         <v>2</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="50">
         <v>1</v>
       </c>
     </row>
@@ -2471,7 +2378,7 @@
       <c r="V5" s="7">
         <v>5</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="50">
         <v>1</v>
       </c>
     </row>
@@ -2540,7 +2447,7 @@
       <c r="V6" s="6">
         <v>2</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="50">
         <v>2</v>
       </c>
     </row>
@@ -2609,7 +2516,7 @@
       <c r="V7" s="7">
         <v>2</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="50">
         <v>2</v>
       </c>
     </row>
@@ -2674,7 +2581,7 @@
       <c r="V8" s="6">
         <v>2</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="50">
         <v>2</v>
       </c>
     </row>
@@ -2743,7 +2650,7 @@
       <c r="V9" s="7">
         <v>2</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="50">
         <v>2</v>
       </c>
     </row>
@@ -2812,7 +2719,7 @@
       <c r="V10" s="6">
         <v>1</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="50">
         <v>2</v>
       </c>
     </row>
@@ -2881,7 +2788,7 @@
       <c r="V11" s="7">
         <v>5</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="50">
         <v>2</v>
       </c>
     </row>
@@ -2946,7 +2853,7 @@
       <c r="V12" s="6">
         <v>2</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="50">
         <v>1</v>
       </c>
     </row>
@@ -3015,7 +2922,7 @@
       <c r="V13" s="7">
         <v>5</v>
       </c>
-      <c r="W13" s="8">
+      <c r="W13" s="50">
         <v>2</v>
       </c>
     </row>
@@ -3080,7 +2987,7 @@
       <c r="V14" s="6">
         <v>2</v>
       </c>
-      <c r="W14" s="8">
+      <c r="W14" s="50">
         <v>1</v>
       </c>
     </row>
@@ -3149,7 +3056,7 @@
       <c r="V15" s="7">
         <v>5</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W15" s="50">
         <v>2</v>
       </c>
     </row>
@@ -3214,7 +3121,7 @@
       <c r="V16" s="6">
         <v>2</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16" s="50">
         <v>2</v>
       </c>
     </row>
@@ -3283,7 +3190,7 @@
       <c r="V17" s="7">
         <v>2</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W17" s="50">
         <v>1</v>
       </c>
     </row>
@@ -3348,7 +3255,7 @@
       <c r="V18" s="6">
         <v>2</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W18" s="50">
         <v>2</v>
       </c>
     </row>
@@ -3417,7 +3324,7 @@
       <c r="V19" s="7">
         <v>2</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W19" s="50">
         <v>1</v>
       </c>
     </row>
@@ -3482,7 +3389,7 @@
       <c r="V20" s="6">
         <v>1</v>
       </c>
-      <c r="W20" s="8">
+      <c r="W20" s="50">
         <v>2</v>
       </c>
     </row>
@@ -3578,7 +3485,7 @@
       <c r="V22" s="6">
         <v>1</v>
       </c>
-      <c r="W22" s="8">
+      <c r="W22" s="50">
         <v>1</v>
       </c>
     </row>
@@ -3647,7 +3554,7 @@
       <c r="V23" s="7">
         <v>1</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W23" s="50">
         <v>2</v>
       </c>
     </row>
@@ -3714,7 +3621,7 @@
       <c r="V24" s="6">
         <v>1</v>
       </c>
-      <c r="W24" s="8">
+      <c r="W24" s="50">
         <v>2</v>
       </c>
     </row>
@@ -3783,7 +3690,7 @@
       <c r="V25" s="7">
         <v>1</v>
       </c>
-      <c r="W25" s="8">
+      <c r="W25" s="50">
         <v>2</v>
       </c>
     </row>
@@ -3848,7 +3755,7 @@
       <c r="V26" s="6">
         <v>2</v>
       </c>
-      <c r="W26" s="8">
+      <c r="W26" s="50">
         <v>1</v>
       </c>
     </row>
@@ -3917,7 +3824,7 @@
       <c r="V27" s="7">
         <v>2</v>
       </c>
-      <c r="W27" s="8">
+      <c r="W27" s="50">
         <v>1</v>
       </c>
     </row>
@@ -3982,7 +3889,7 @@
       <c r="V28" s="6">
         <v>2</v>
       </c>
-      <c r="W28" s="8">
+      <c r="W28" s="50">
         <v>2</v>
       </c>
     </row>
@@ -4051,7 +3958,7 @@
       <c r="V29" s="7">
         <v>2</v>
       </c>
-      <c r="W29" s="8">
+      <c r="W29" s="50">
         <v>2</v>
       </c>
     </row>
@@ -4116,7 +4023,7 @@
       <c r="V30" s="6">
         <v>1</v>
       </c>
-      <c r="W30" s="8">
+      <c r="W30" s="50">
         <v>2</v>
       </c>
     </row>
@@ -4185,7 +4092,7 @@
       <c r="V31" s="7">
         <v>1</v>
       </c>
-      <c r="W31" s="8">
+      <c r="W31" s="50">
         <v>2</v>
       </c>
     </row>
@@ -4250,7 +4157,7 @@
       <c r="V32" s="6">
         <v>2</v>
       </c>
-      <c r="W32" s="8">
+      <c r="W32" s="50">
         <v>2</v>
       </c>
     </row>
@@ -4319,7 +4226,7 @@
       <c r="V33" s="7">
         <v>2</v>
       </c>
-      <c r="W33" s="8">
+      <c r="W33" s="50">
         <v>2</v>
       </c>
     </row>
@@ -4388,7 +4295,7 @@
       <c r="V34" s="6">
         <v>2</v>
       </c>
-      <c r="W34" s="8">
+      <c r="W34" s="50">
         <v>1</v>
       </c>
     </row>
@@ -4457,7 +4364,7 @@
       <c r="V35" s="7">
         <v>2</v>
       </c>
-      <c r="W35" s="8">
+      <c r="W35" s="50">
         <v>2</v>
       </c>
     </row>
@@ -4522,7 +4429,7 @@
       <c r="V36" s="6">
         <v>2</v>
       </c>
-      <c r="W36" s="8">
+      <c r="W36" s="50">
         <v>1</v>
       </c>
     </row>
@@ -4591,7 +4498,7 @@
       <c r="V37" s="7">
         <v>2</v>
       </c>
-      <c r="W37" s="8">
+      <c r="W37" s="50">
         <v>2</v>
       </c>
     </row>
@@ -4656,7 +4563,7 @@
       <c r="V38" s="6">
         <v>2</v>
       </c>
-      <c r="W38" s="8">
+      <c r="W38" s="50">
         <v>2</v>
       </c>
     </row>
@@ -4725,7 +4632,7 @@
       <c r="V39" s="7">
         <v>2</v>
       </c>
-      <c r="W39" s="8">
+      <c r="W39" s="50">
         <v>2</v>
       </c>
     </row>
@@ -4821,7 +4728,7 @@
       <c r="V41" s="7">
         <v>2</v>
       </c>
-      <c r="W41" s="8">
+      <c r="W41" s="50">
         <v>2</v>
       </c>
     </row>
@@ -4890,7 +4797,7 @@
       <c r="V42" s="6">
         <v>2</v>
       </c>
-      <c r="W42" s="8">
+      <c r="W42" s="50">
         <v>1</v>
       </c>
     </row>
@@ -4959,7 +4866,7 @@
       <c r="V43" s="7">
         <v>2</v>
       </c>
-      <c r="W43" s="8">
+      <c r="W43" s="50">
         <v>2</v>
       </c>
     </row>
@@ -5028,7 +4935,7 @@
       <c r="V44" s="6">
         <v>2</v>
       </c>
-      <c r="W44" s="8">
+      <c r="W44" s="50">
         <v>2</v>
       </c>
     </row>
@@ -5093,7 +5000,7 @@
       <c r="V45" s="5">
         <v>2</v>
       </c>
-      <c r="W45" s="8">
+      <c r="W45" s="50">
         <v>2</v>
       </c>
     </row>
@@ -5158,7 +5065,7 @@
       <c r="V46" s="6">
         <v>3</v>
       </c>
-      <c r="W46" s="8">
+      <c r="W46" s="50">
         <v>1</v>
       </c>
     </row>
@@ -5223,7 +5130,7 @@
       <c r="V47" s="5">
         <v>3</v>
       </c>
-      <c r="W47" s="8">
+      <c r="W47" s="50">
         <v>2</v>
       </c>
     </row>
@@ -5288,7 +5195,7 @@
       <c r="V48" s="6">
         <v>2</v>
       </c>
-      <c r="W48" s="8">
+      <c r="W48" s="50">
         <v>1</v>
       </c>
     </row>
@@ -5353,7 +5260,7 @@
       <c r="V49" s="5">
         <v>5</v>
       </c>
-      <c r="W49" s="8">
+      <c r="W49" s="50">
         <v>2</v>
       </c>
     </row>
@@ -5422,7 +5329,7 @@
       <c r="V50" s="6">
         <v>3</v>
       </c>
-      <c r="W50" s="8">
+      <c r="W50" s="50">
         <v>2</v>
       </c>
     </row>
@@ -5487,7 +5394,7 @@
       <c r="V51" s="5">
         <v>2</v>
       </c>
-      <c r="W51" s="8">
+      <c r="W51" s="50">
         <v>2</v>
       </c>
     </row>
@@ -5556,7 +5463,7 @@
       <c r="V52" s="6">
         <v>2</v>
       </c>
-      <c r="W52" s="8">
+      <c r="W52" s="50">
         <v>2</v>
       </c>
     </row>
@@ -5621,7 +5528,7 @@
       <c r="V53" s="5">
         <v>2</v>
       </c>
-      <c r="W53" s="8">
+      <c r="W53" s="50">
         <v>2</v>
       </c>
     </row>
@@ -5686,7 +5593,7 @@
       <c r="V54" s="6">
         <v>5</v>
       </c>
-      <c r="W54" s="8">
+      <c r="W54" s="50">
         <v>2</v>
       </c>
     </row>
@@ -5755,7 +5662,7 @@
       <c r="V55" s="5">
         <v>5</v>
       </c>
-      <c r="W55" s="8">
+      <c r="W55" s="50">
         <v>2</v>
       </c>
       <c r="X55" s="10"/>
@@ -5822,7 +5729,7 @@
       <c r="V56" s="6">
         <v>4</v>
       </c>
-      <c r="W56" s="8">
+      <c r="W56" s="50">
         <v>2</v>
       </c>
     </row>
@@ -5889,7 +5796,7 @@
       <c r="V57" s="5">
         <v>4</v>
       </c>
-      <c r="W57" s="8">
+      <c r="W57" s="50">
         <v>1</v>
       </c>
     </row>
@@ -5954,7 +5861,7 @@
       <c r="V58" s="6">
         <v>4</v>
       </c>
-      <c r="W58" s="8">
+      <c r="W58" s="50">
         <v>2</v>
       </c>
     </row>
@@ -6021,7 +5928,7 @@
       <c r="V59" s="5">
         <v>4</v>
       </c>
-      <c r="W59" s="8">
+      <c r="W59" s="50">
         <v>2</v>
       </c>
     </row>
@@ -6090,7 +5997,7 @@
       <c r="V60" s="6">
         <v>5</v>
       </c>
-      <c r="W60" s="8">
+      <c r="W60" s="50">
         <v>1</v>
       </c>
     </row>
@@ -6157,7 +6064,7 @@
       <c r="V61" s="5">
         <v>5</v>
       </c>
-      <c r="W61" s="8">
+      <c r="W61" s="50">
         <v>2</v>
       </c>
     </row>
@@ -6226,7 +6133,7 @@
       <c r="V62" s="6">
         <v>2</v>
       </c>
-      <c r="W62" s="8">
+      <c r="W62" s="50">
         <v>2</v>
       </c>
     </row>
@@ -6293,7 +6200,7 @@
       <c r="V63" s="5">
         <v>2</v>
       </c>
-      <c r="W63" s="8">
+      <c r="W63" s="50">
         <v>1</v>
       </c>
     </row>
@@ -6362,7 +6269,7 @@
       <c r="V64" s="6">
         <v>1</v>
       </c>
-      <c r="W64" s="8">
+      <c r="W64" s="50">
         <v>2</v>
       </c>
     </row>
@@ -6429,7 +6336,7 @@
       <c r="V65" s="5">
         <v>1</v>
       </c>
-      <c r="W65" s="8">
+      <c r="W65" s="50">
         <v>2</v>
       </c>
     </row>
@@ -6494,7 +6401,7 @@
       <c r="V66" s="6">
         <v>1</v>
       </c>
-      <c r="W66" s="8">
+      <c r="W66" s="50">
         <v>2</v>
       </c>
     </row>
@@ -6561,7 +6468,7 @@
       <c r="V67" s="5">
         <v>1</v>
       </c>
-      <c r="W67" s="8">
+      <c r="W67" s="50">
         <v>2</v>
       </c>
     </row>
@@ -6626,7 +6533,7 @@
       <c r="V68" s="6">
         <v>1</v>
       </c>
-      <c r="W68" s="8">
+      <c r="W68" s="50">
         <v>1</v>
       </c>
     </row>
@@ -6693,7 +6600,7 @@
       <c r="V69" s="5">
         <v>5</v>
       </c>
-      <c r="W69" s="8">
+      <c r="W69" s="50">
         <v>1</v>
       </c>
     </row>
@@ -6758,7 +6665,7 @@
       <c r="V70" s="6">
         <v>2</v>
       </c>
-      <c r="W70" s="8">
+      <c r="W70" s="50">
         <v>2</v>
       </c>
     </row>
@@ -6825,7 +6732,7 @@
       <c r="V71" s="5">
         <v>5</v>
       </c>
-      <c r="W71" s="8">
+      <c r="W71" s="50">
         <v>1</v>
       </c>
     </row>
@@ -6892,7 +6799,7 @@
       <c r="V72" s="5">
         <v>2</v>
       </c>
-      <c r="W72" s="8">
+      <c r="W72" s="50">
         <v>2</v>
       </c>
     </row>
@@ -6957,7 +6864,7 @@
       <c r="V73" s="6">
         <v>1</v>
       </c>
-      <c r="W73" s="8">
+      <c r="W73" s="50">
         <v>2</v>
       </c>
     </row>
@@ -7024,7 +6931,7 @@
       <c r="V74" s="5">
         <v>1</v>
       </c>
-      <c r="W74" s="8">
+      <c r="W74" s="50">
         <v>2</v>
       </c>
     </row>
@@ -7089,7 +6996,7 @@
       <c r="V75" s="6">
         <v>3</v>
       </c>
-      <c r="W75" s="8">
+      <c r="W75" s="50">
         <v>2</v>
       </c>
     </row>
@@ -7122,8 +7029,8 @@
       <c r="J76" s="5">
         <v>1</v>
       </c>
-      <c r="K76" s="8" t="s">
-        <v>120</v>
+      <c r="K76" s="8">
+        <v>2</v>
       </c>
       <c r="L76" s="8">
         <v>1</v>
@@ -7156,7 +7063,7 @@
       <c r="V76" s="5">
         <v>1</v>
       </c>
-      <c r="W76" s="8">
+      <c r="W76" s="50">
         <v>2</v>
       </c>
     </row>
@@ -7221,13 +7128,13 @@
       <c r="V77" s="6">
         <v>3</v>
       </c>
-      <c r="W77" s="8">
+      <c r="W77" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" s="29" t="s">
         <v>70</v>
@@ -7242,7 +7149,7 @@
         <v>41</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
@@ -7260,11 +7167,11 @@
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
       <c r="V78" s="29"/>
-      <c r="W78" s="8"/>
+      <c r="W78" s="50"/>
     </row>
     <row r="79" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>70</v>
@@ -7327,16 +7234,16 @@
       <c r="V79" s="6">
         <v>1</v>
       </c>
-      <c r="W79" s="8">
+      <c r="W79" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>48</v>
@@ -7392,16 +7299,16 @@
       <c r="V80" s="5">
         <v>1</v>
       </c>
-      <c r="W80" s="8">
+      <c r="W80" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>48</v>
@@ -7457,7 +7364,7 @@
       <c r="V81" s="6">
         <v>1</v>
       </c>
-      <c r="W81" s="8">
+      <c r="W81" s="50">
         <v>2</v>
       </c>
       <c r="X81" s="6"/>
@@ -7465,10 +7372,10 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>48</v>
@@ -7524,7 +7431,7 @@
       <c r="V82" s="5">
         <v>5</v>
       </c>
-      <c r="W82" s="8">
+      <c r="W82" s="50">
         <v>2</v>
       </c>
       <c r="X82" s="6"/>
@@ -7532,7 +7439,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>55</v>
@@ -7591,13 +7498,13 @@
       <c r="V83" s="6">
         <v>2</v>
       </c>
-      <c r="W83" s="8">
+      <c r="W83" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>85</v>
@@ -7656,7 +7563,7 @@
       <c r="V84" s="5">
         <v>2</v>
       </c>
-      <c r="W84" s="8">
+      <c r="W84" s="50">
         <v>1</v>
       </c>
       <c r="X84" s="6"/>
@@ -7664,7 +7571,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>85</v>
@@ -7723,13 +7630,13 @@
       <c r="V85" s="6">
         <v>2</v>
       </c>
-      <c r="W85" s="8">
+      <c r="W85" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>63</v>
@@ -7788,7 +7695,7 @@
       <c r="V86" s="5">
         <v>1</v>
       </c>
-      <c r="W86" s="8">
+      <c r="W86" s="50">
         <v>1</v>
       </c>
       <c r="X86" s="6"/>
@@ -7796,7 +7703,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>63</v>
@@ -7857,16 +7764,16 @@
       <c r="V87" s="6">
         <v>1</v>
       </c>
-      <c r="W87" s="8">
+      <c r="W87" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>36</v>
@@ -7924,7 +7831,7 @@
       <c r="V88" s="5">
         <v>3</v>
       </c>
-      <c r="W88" s="8">
+      <c r="W88" s="50">
         <v>2</v>
       </c>
       <c r="X88" s="6"/>
@@ -7932,10 +7839,10 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>36</v>
@@ -7993,7 +7900,7 @@
       <c r="V89" s="6">
         <v>3</v>
       </c>
-      <c r="W89" s="8">
+      <c r="W89" s="50">
         <v>2</v>
       </c>
       <c r="X89" s="33"/>
@@ -8001,10 +7908,10 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>36</v>
@@ -8060,7 +7967,7 @@
       <c r="V90" s="5">
         <v>2</v>
       </c>
-      <c r="W90" s="8">
+      <c r="W90" s="50">
         <v>1</v>
       </c>
       <c r="X90" s="8"/>
@@ -8068,10 +7975,10 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>36</v>
@@ -8127,16 +8034,16 @@
       <c r="V91" s="6">
         <v>2</v>
       </c>
-      <c r="W91" s="8">
+      <c r="W91" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>36</v>
@@ -8192,7 +8099,7 @@
       <c r="V92" s="5">
         <v>1</v>
       </c>
-      <c r="W92" s="8">
+      <c r="W92" s="50">
         <v>2</v>
       </c>
       <c r="X92" s="6"/>
@@ -8200,10 +8107,10 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>36</v>
@@ -8261,13 +8168,13 @@
       <c r="V93" s="6">
         <v>1</v>
       </c>
-      <c r="W93" s="8">
+      <c r="W93" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>28</v>
@@ -8326,7 +8233,7 @@
       <c r="V94" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W94" s="8">
+      <c r="W94" s="50">
         <v>1</v>
       </c>
       <c r="X94" s="6"/>
@@ -8334,7 +8241,7 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>28</v>
@@ -8397,13 +8304,13 @@
       <c r="V95" s="6">
         <v>5</v>
       </c>
-      <c r="W95" s="8">
+      <c r="W95" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>28</v>
@@ -8462,7 +8369,7 @@
       <c r="V96" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W96" s="8">
+      <c r="W96" s="50">
         <v>1</v>
       </c>
       <c r="X96" s="6"/>
@@ -8470,7 +8377,7 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>28</v>
@@ -8529,22 +8436,22 @@
       <c r="V97" s="6">
         <v>5</v>
       </c>
-      <c r="W97" s="8">
+      <c r="W97" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>41</v>
@@ -8596,7 +8503,7 @@
       <c r="V98" s="5">
         <v>2</v>
       </c>
-      <c r="W98" s="8">
+      <c r="W98" s="50">
         <v>2</v>
       </c>
       <c r="X98" s="6"/>
@@ -8604,16 +8511,16 @@
     </row>
     <row r="99" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>41</v>
@@ -8663,7 +8570,7 @@
       <c r="V99" s="6">
         <v>2</v>
       </c>
-      <c r="W99" s="8">
+      <c r="W99" s="50">
         <v>1</v>
       </c>
       <c r="X99" s="5"/>
@@ -8671,10 +8578,10 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>36</v>
@@ -8730,16 +8637,16 @@
       <c r="V100" s="5">
         <v>2</v>
       </c>
-      <c r="W100" s="8">
+      <c r="W100" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>36</v>
@@ -8795,13 +8702,13 @@
       <c r="V101" s="6">
         <v>2</v>
       </c>
-      <c r="W101" s="8">
+      <c r="W101" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>74</v>
@@ -8810,7 +8717,7 @@
         <v>36</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>41</v>
@@ -8862,7 +8769,7 @@
       <c r="V102" s="5">
         <v>1</v>
       </c>
-      <c r="W102" s="8">
+      <c r="W102" s="50">
         <v>2</v>
       </c>
       <c r="X102" s="6"/>
@@ -8870,7 +8777,7 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>74</v>
@@ -8879,7 +8786,7 @@
         <v>36</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>41</v>
@@ -8929,16 +8836,16 @@
       <c r="V103" s="6">
         <v>2</v>
       </c>
-      <c r="W103" s="8">
+      <c r="W103" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>36</v>
@@ -8996,7 +8903,7 @@
       <c r="V104" s="5">
         <v>3</v>
       </c>
-      <c r="W104" s="8">
+      <c r="W104" s="50">
         <v>2</v>
       </c>
       <c r="X104" s="6"/>
@@ -9004,10 +8911,10 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>36</v>
@@ -9063,7 +8970,7 @@
       <c r="V105" s="6">
         <v>3</v>
       </c>
-      <c r="W105" s="8">
+      <c r="W105" s="50">
         <v>1</v>
       </c>
       <c r="X105" s="33"/>
@@ -9071,7 +8978,7 @@
     </row>
     <row r="106" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>28</v>
@@ -9080,7 +8987,7 @@
         <v>36</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>41</v>
@@ -9132,7 +9039,7 @@
       <c r="V106" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W106" s="8">
+      <c r="W106" s="50">
         <v>1</v>
       </c>
       <c r="X106" s="6"/>
@@ -9140,7 +9047,7 @@
     </row>
     <row r="107" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>28</v>
@@ -9149,7 +9056,7 @@
         <v>36</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E107" s="34" t="s">
         <v>41</v>
@@ -9199,16 +9106,16 @@
       <c r="V107" s="6">
         <v>5</v>
       </c>
-      <c r="W107" s="8">
+      <c r="W107" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>36</v>
@@ -9266,7 +9173,7 @@
       <c r="V108" s="5">
         <v>3</v>
       </c>
-      <c r="W108" s="8">
+      <c r="W108" s="50">
         <v>2</v>
       </c>
       <c r="X108" s="8"/>
@@ -9274,10 +9181,10 @@
     </row>
     <row r="109" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>36</v>
@@ -9335,7 +9242,7 @@
       <c r="V109" s="6">
         <v>3</v>
       </c>
-      <c r="W109" s="8">
+      <c r="W109" s="50">
         <v>1</v>
       </c>
       <c r="X109" s="5"/>
@@ -9343,16 +9250,16 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>33</v>
@@ -9402,7 +9309,7 @@
       <c r="V110" s="5">
         <v>2</v>
       </c>
-      <c r="W110" s="8">
+      <c r="W110" s="50">
         <v>1</v>
       </c>
       <c r="X110" s="6"/>
@@ -9410,16 +9317,16 @@
     </row>
     <row r="111" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>41</v>
@@ -9471,7 +9378,7 @@
       <c r="V111" s="6">
         <v>2</v>
       </c>
-      <c r="W111" s="8">
+      <c r="W111" s="50">
         <v>1</v>
       </c>
       <c r="X111" s="5"/>
@@ -9479,7 +9386,7 @@
     </row>
     <row r="112" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>98</v>
@@ -9540,7 +9447,7 @@
       <c r="V112" s="5">
         <v>4</v>
       </c>
-      <c r="W112" s="8">
+      <c r="W112" s="50">
         <v>2</v>
       </c>
       <c r="X112" s="6"/>
@@ -9548,7 +9455,7 @@
     </row>
     <row r="113" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>98</v>
@@ -9609,7 +9516,7 @@
       <c r="V113" s="5">
         <v>4</v>
       </c>
-      <c r="W113" s="8">
+      <c r="W113" s="50">
         <v>2</v>
       </c>
       <c r="X113" s="6"/>
@@ -9617,7 +9524,7 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>28</v>
@@ -9626,7 +9533,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>41</v>
@@ -9676,7 +9583,7 @@
       <c r="V114" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W114" s="8">
+      <c r="W114" s="50">
         <v>2</v>
       </c>
       <c r="X114" s="33"/>
@@ -9684,7 +9591,7 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>28</v>
@@ -9693,7 +9600,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>33</v>
@@ -9743,7 +9650,7 @@
       <c r="V115" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W115" s="8">
+      <c r="W115" s="50">
         <v>2</v>
       </c>
       <c r="X115" s="33"/>
@@ -9751,16 +9658,16 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E116" s="32" t="s">
         <v>33</v>
@@ -9810,7 +9717,7 @@
       <c r="V116" s="5">
         <v>5</v>
       </c>
-      <c r="W116" s="8">
+      <c r="W116" s="50">
         <v>1</v>
       </c>
       <c r="X116" s="6"/>
@@ -9818,16 +9725,16 @@
     </row>
     <row r="117" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E117" s="32" t="s">
         <v>33</v>
@@ -9881,7 +9788,7 @@
       <c r="V117" s="6">
         <v>5</v>
       </c>
-      <c r="W117" s="8">
+      <c r="W117" s="50">
         <v>2</v>
       </c>
       <c r="X117" s="5"/>
@@ -9889,10 +9796,10 @@
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>36</v>
@@ -9948,7 +9855,7 @@
       <c r="V118" s="5">
         <v>2</v>
       </c>
-      <c r="W118" s="8">
+      <c r="W118" s="50">
         <v>1</v>
       </c>
       <c r="X118" s="6"/>
@@ -9956,10 +9863,10 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>36</v>
@@ -10015,13 +9922,13 @@
       <c r="V119" s="6">
         <v>2</v>
       </c>
-      <c r="W119" s="8">
+      <c r="W119" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>70</v>
@@ -10082,7 +9989,7 @@
       <c r="V120" s="5">
         <v>1</v>
       </c>
-      <c r="W120" s="8">
+      <c r="W120" s="50">
         <v>2</v>
       </c>
       <c r="X120" s="6"/>
@@ -10090,7 +9997,7 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>70</v>
@@ -10153,7 +10060,7 @@
       <c r="V121" s="6">
         <v>1</v>
       </c>
-      <c r="W121" s="8">
+      <c r="W121" s="50">
         <v>2</v>
       </c>
       <c r="X121" s="33"/>
@@ -10161,7 +10068,7 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>85</v>
@@ -10220,7 +10127,7 @@
       <c r="V122" s="5">
         <v>2</v>
       </c>
-      <c r="W122" s="8">
+      <c r="W122" s="50">
         <v>2</v>
       </c>
       <c r="X122" s="6"/>
@@ -10228,7 +10135,7 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>85</v>
@@ -10289,7 +10196,7 @@
       <c r="V123" s="6">
         <v>2</v>
       </c>
-      <c r="W123" s="8">
+      <c r="W123" s="50">
         <v>2</v>
       </c>
       <c r="X123" s="33"/>
@@ -10297,7 +10204,7 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B124" s="25" t="s">
         <v>102</v>
@@ -10306,10 +10213,10 @@
         <v>44</v>
       </c>
       <c r="D124" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E124" s="32" t="s">
         <v>161</v>
-      </c>
-      <c r="E124" s="32" t="s">
-        <v>162</v>
       </c>
       <c r="F124" s="25"/>
       <c r="G124" s="5">
@@ -10357,7 +10264,7 @@
       <c r="V124" s="5">
         <v>5</v>
       </c>
-      <c r="W124" s="8">
+      <c r="W124" s="50">
         <v>1</v>
       </c>
       <c r="X124" s="8"/>
@@ -10365,7 +10272,7 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>102</v>
@@ -10374,7 +10281,7 @@
         <v>44</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E125" s="32" t="s">
         <v>33</v>
@@ -10424,7 +10331,7 @@
       <c r="V125" s="6">
         <v>1</v>
       </c>
-      <c r="W125" s="8">
+      <c r="W125" s="50">
         <v>1</v>
       </c>
       <c r="X125" s="33"/>
@@ -10432,13 +10339,13 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B126" s="25" t="s">
         <v>102</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>45</v>
@@ -10492,7 +10399,7 @@
       <c r="V126" s="5">
         <v>5</v>
       </c>
-      <c r="W126" s="8">
+      <c r="W126" s="50">
         <v>2</v>
       </c>
       <c r="X126" s="6"/>
@@ -10500,13 +10407,13 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D127" s="13" t="s">
         <v>45</v>
@@ -10559,7 +10466,7 @@
       <c r="V127" s="6">
         <v>5</v>
       </c>
-      <c r="W127" s="8">
+      <c r="W127" s="50">
         <v>2</v>
       </c>
       <c r="X127" s="33"/>
@@ -10567,10 +10474,10 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>36</v>
@@ -10626,7 +10533,7 @@
       <c r="V128" s="5">
         <v>3</v>
       </c>
-      <c r="W128" s="8">
+      <c r="W128" s="50">
         <v>1</v>
       </c>
       <c r="X128" s="8"/>
@@ -10634,10 +10541,10 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>36</v>
@@ -10697,16 +10604,16 @@
       <c r="V129" s="6">
         <v>3</v>
       </c>
-      <c r="W129" s="8">
+      <c r="W129" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>31</v>
@@ -10764,7 +10671,7 @@
       <c r="V130" s="5">
         <v>5</v>
       </c>
-      <c r="W130" s="8">
+      <c r="W130" s="50">
         <v>1</v>
       </c>
       <c r="X130" s="6"/>
@@ -10772,10 +10679,10 @@
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>31</v>
@@ -10835,28 +10742,28 @@
       <c r="V131" s="6">
         <v>3</v>
       </c>
-      <c r="W131" s="8">
+      <c r="W131" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G132" s="5">
         <v>2</v>
@@ -10904,7 +10811,7 @@
       <c r="V132" s="5">
         <v>2</v>
       </c>
-      <c r="W132" s="8">
+      <c r="W132" s="50">
         <v>2</v>
       </c>
       <c r="X132" s="7"/>
@@ -10912,22 +10819,22 @@
     </row>
     <row r="133" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G133" s="6">
         <v>2</v>
@@ -10977,7 +10884,7 @@
       <c r="V133" s="6">
         <v>1</v>
       </c>
-      <c r="W133" s="8">
+      <c r="W133" s="50">
         <v>2</v>
       </c>
       <c r="X133" s="33"/>
@@ -10985,10 +10892,10 @@
     </row>
     <row r="134" spans="1:25" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B134" s="36" t="s">
         <v>172</v>
-      </c>
-      <c r="B134" s="36" t="s">
-        <v>173</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>36</v>
@@ -11046,16 +10953,16 @@
       <c r="V134" s="5">
         <v>2</v>
       </c>
-      <c r="W134" s="8">
+      <c r="W134" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:25" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B135" s="37" t="s">
         <v>172</v>
-      </c>
-      <c r="B135" s="37" t="s">
-        <v>173</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>36</v>
@@ -11113,7 +11020,7 @@
       <c r="V135" s="6">
         <v>3</v>
       </c>
-      <c r="W135" s="8">
+      <c r="W135" s="50">
         <v>1</v>
       </c>
       <c r="X135" s="33"/>
@@ -11121,22 +11028,22 @@
     </row>
     <row r="136" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D136" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E136" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="F136" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="G136" s="5">
         <v>2</v>
@@ -11184,7 +11091,7 @@
       <c r="V136" s="5">
         <v>2</v>
       </c>
-      <c r="W136" s="8">
+      <c r="W136" s="50">
         <v>1</v>
       </c>
       <c r="X136" s="7"/>
@@ -11192,22 +11099,22 @@
     </row>
     <row r="137" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G137" s="7">
         <v>2</v>
@@ -11257,7 +11164,7 @@
       <c r="V137" s="7">
         <v>2</v>
       </c>
-      <c r="W137" s="8">
+      <c r="W137" s="50">
         <v>1</v>
       </c>
       <c r="X137" s="5"/>
@@ -11265,7 +11172,7 @@
     </row>
     <row r="138" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B138" s="25" t="s">
         <v>108</v>
@@ -11326,7 +11233,7 @@
       <c r="V138" s="5">
         <v>1</v>
       </c>
-      <c r="W138" s="8">
+      <c r="W138" s="50">
         <v>2</v>
       </c>
       <c r="X138" s="19"/>
@@ -11334,7 +11241,7 @@
     </row>
     <row r="139" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>108</v>
@@ -11397,7 +11304,7 @@
       <c r="V139" s="7">
         <v>1</v>
       </c>
-      <c r="W139" s="8">
+      <c r="W139" s="50">
         <v>2</v>
       </c>
       <c r="X139" s="5"/>
@@ -11405,7 +11312,7 @@
     </row>
     <row r="140" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>79</v>
@@ -11466,13 +11373,13 @@
       <c r="V140" s="5">
         <v>2</v>
       </c>
-      <c r="W140" s="8">
+      <c r="W140" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>79</v>
@@ -11534,7 +11441,7 @@
       <c r="V141" s="7">
         <v>2</v>
       </c>
-      <c r="W141" s="8">
+      <c r="W141" s="50">
         <v>2</v>
       </c>
       <c r="X141" s="5"/>
@@ -11542,10 +11449,10 @@
     </row>
     <row r="142" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>36</v>
@@ -11603,16 +11510,16 @@
       <c r="V142" s="5">
         <v>1</v>
       </c>
-      <c r="W142" s="8">
+      <c r="W142" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>36</v>
@@ -11671,7 +11578,7 @@
       <c r="V143" s="7">
         <v>1</v>
       </c>
-      <c r="W143" s="8">
+      <c r="W143" s="50">
         <v>2</v>
       </c>
       <c r="X143" s="5"/>
@@ -11679,7 +11586,7 @@
     </row>
     <row r="144" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>98</v>
@@ -11740,7 +11647,7 @@
       <c r="V144" s="5">
         <v>4</v>
       </c>
-      <c r="W144" s="8">
+      <c r="W144" s="50">
         <v>2</v>
       </c>
       <c r="X144" s="7"/>
@@ -11748,7 +11655,7 @@
     </row>
     <row r="145" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>98</v>
@@ -11811,7 +11718,7 @@
       <c r="V145" s="7">
         <v>4</v>
       </c>
-      <c r="W145" s="8">
+      <c r="W145" s="50">
         <v>2</v>
       </c>
       <c r="X145" s="5"/>
@@ -11819,10 +11726,10 @@
     </row>
     <row r="146" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>36</v>
@@ -11880,7 +11787,7 @@
       <c r="V146" s="5">
         <v>1</v>
       </c>
-      <c r="W146" s="8">
+      <c r="W146" s="50">
         <v>2</v>
       </c>
       <c r="X146" s="7"/>
@@ -11888,10 +11795,10 @@
     </row>
     <row r="147" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>36</v>
@@ -11912,7 +11819,7 @@
         <v>1</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K147" s="8">
         <v>1</v>
@@ -11950,18 +11857,18 @@
       <c r="V147" s="7">
         <v>1</v>
       </c>
-      <c r="W147" s="8" t="s">
-        <v>187</v>
+      <c r="W147" s="50">
+        <v>2</v>
       </c>
       <c r="X147" s="5"/>
       <c r="Y147" s="5"/>
     </row>
     <row r="148" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>31</v>
@@ -12019,16 +11926,16 @@
       <c r="V148" s="5">
         <v>5</v>
       </c>
-      <c r="W148" s="8">
+      <c r="W148" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>31</v>
@@ -12087,7 +11994,7 @@
       <c r="V149" s="7">
         <v>5</v>
       </c>
-      <c r="W149" s="8">
+      <c r="W149" s="50">
         <v>2</v>
       </c>
       <c r="X149" s="5"/>
@@ -12095,7 +12002,7 @@
     </row>
     <row r="150" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>28</v>
@@ -12156,13 +12063,13 @@
       <c r="V150" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W150" s="8">
+      <c r="W150" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>28</v>
@@ -12224,7 +12131,7 @@
       <c r="V151" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="W151" s="8">
+      <c r="W151" s="50">
         <v>1</v>
       </c>
       <c r="X151" s="5"/>
@@ -12232,16 +12139,16 @@
     </row>
     <row r="152" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E152" s="32" t="s">
         <v>33</v>
@@ -12293,7 +12200,7 @@
       <c r="V152" s="5">
         <v>5</v>
       </c>
-      <c r="W152" s="8">
+      <c r="W152" s="50">
         <v>2</v>
       </c>
       <c r="X152" s="7"/>
@@ -12301,16 +12208,16 @@
     </row>
     <row r="153" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E153" s="32" t="s">
         <v>33</v>
@@ -12364,7 +12271,7 @@
       <c r="V153" s="7">
         <v>5</v>
       </c>
-      <c r="W153" s="8">
+      <c r="W153" s="50">
         <v>1</v>
       </c>
       <c r="X153" s="5"/>
@@ -12372,10 +12279,10 @@
     </row>
     <row r="154" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>31</v>
@@ -12387,7 +12294,7 @@
         <v>41</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G154" s="5">
         <v>2</v>
@@ -12435,7 +12342,7 @@
       <c r="V154" s="5">
         <v>2</v>
       </c>
-      <c r="W154" s="8">
+      <c r="W154" s="50">
         <v>2</v>
       </c>
       <c r="X154" s="7"/>
@@ -12443,10 +12350,10 @@
     </row>
     <row r="155" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>31</v>
@@ -12458,7 +12365,7 @@
         <v>41</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G155" s="7">
         <v>2</v>
@@ -12508,7 +12415,7 @@
       <c r="V155" s="7">
         <v>2</v>
       </c>
-      <c r="W155" s="8">
+      <c r="W155" s="50">
         <v>2</v>
       </c>
       <c r="X155" s="33"/>
@@ -12516,7 +12423,7 @@
     </row>
     <row r="156" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>98</v>
@@ -12577,7 +12484,7 @@
       <c r="V156" s="5">
         <v>4</v>
       </c>
-      <c r="W156" s="8">
+      <c r="W156" s="50">
         <v>2</v>
       </c>
       <c r="X156" s="19"/>
@@ -12585,7 +12492,7 @@
     </row>
     <row r="157" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>98</v>
@@ -12648,7 +12555,7 @@
       <c r="V157" s="7">
         <v>4</v>
       </c>
-      <c r="W157" s="8">
+      <c r="W157" s="50">
         <v>2</v>
       </c>
       <c r="X157" s="33"/>
@@ -12656,10 +12563,10 @@
     </row>
     <row r="158" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C158" s="25" t="s">
         <v>36</v>
@@ -12668,7 +12575,7 @@
         <v>93</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F158" s="25"/>
       <c r="G158" s="5">
@@ -12716,7 +12623,7 @@
       <c r="V158" s="5">
         <v>2</v>
       </c>
-      <c r="W158" s="8">
+      <c r="W158" s="50">
         <v>2</v>
       </c>
       <c r="X158" s="19"/>
@@ -12724,10 +12631,10 @@
     </row>
     <row r="159" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C159" s="12" t="s">
         <v>36</v>
@@ -12787,7 +12694,7 @@
       <c r="V159" s="7">
         <v>2</v>
       </c>
-      <c r="W159" s="8">
+      <c r="W159" s="50">
         <v>2</v>
       </c>
       <c r="X159" s="5"/>
@@ -12795,10 +12702,10 @@
     </row>
     <row r="160" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>31</v>
@@ -12856,7 +12763,7 @@
       <c r="V160" s="5">
         <v>2</v>
       </c>
-      <c r="W160" s="8">
+      <c r="W160" s="50">
         <v>2</v>
       </c>
       <c r="X160" s="7"/>
@@ -12864,10 +12771,10 @@
     </row>
     <row r="161" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>31</v>
@@ -12927,7 +12834,7 @@
       <c r="V161" s="7">
         <v>5</v>
       </c>
-      <c r="W161" s="8">
+      <c r="W161" s="50">
         <v>1</v>
       </c>
       <c r="X161" s="33"/>
@@ -12935,16 +12842,16 @@
     </row>
     <row r="162" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C162" s="25" t="s">
         <v>44</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>41</v>
@@ -12996,7 +12903,7 @@
       <c r="V162" s="5">
         <v>2</v>
       </c>
-      <c r="W162" s="8">
+      <c r="W162" s="50">
         <v>2</v>
       </c>
       <c r="X162" s="19"/>
@@ -13004,16 +12911,16 @@
     </row>
     <row r="163" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C163" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>41</v>
@@ -13067,7 +12974,7 @@
       <c r="V163" s="7">
         <v>2</v>
       </c>
-      <c r="W163" s="8">
+      <c r="W163" s="50">
         <v>2</v>
       </c>
       <c r="X163" s="5"/>
@@ -13075,16 +12982,16 @@
     </row>
     <row r="164" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C164" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E164" s="25" t="s">
         <v>41</v>
@@ -13136,7 +13043,7 @@
       <c r="V164" s="5">
         <v>2</v>
       </c>
-      <c r="W164" s="8">
+      <c r="W164" s="50">
         <v>2</v>
       </c>
       <c r="X164" s="19"/>
@@ -13144,16 +13051,16 @@
     </row>
     <row r="165" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C165" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>33</v>
@@ -13207,7 +13114,7 @@
       <c r="V165" s="7">
         <v>2</v>
       </c>
-      <c r="W165" s="8">
+      <c r="W165" s="50">
         <v>2</v>
       </c>
       <c r="X165" s="5"/>
@@ -13215,10 +13122,10 @@
     </row>
     <row r="166" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>48</v>
@@ -13276,7 +13183,7 @@
       <c r="V166" s="5">
         <v>5</v>
       </c>
-      <c r="W166" s="8">
+      <c r="W166" s="50">
         <v>2</v>
       </c>
       <c r="X166" s="7"/>
@@ -13284,10 +13191,10 @@
     </row>
     <row r="167" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>48</v>
@@ -13299,7 +13206,7 @@
         <v>41</v>
       </c>
       <c r="F167" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G167" s="7">
         <v>2</v>
@@ -13349,7 +13256,7 @@
       <c r="V167" s="7">
         <v>5</v>
       </c>
-      <c r="W167" s="8">
+      <c r="W167" s="50">
         <v>2</v>
       </c>
       <c r="X167" s="5"/>
@@ -13357,19 +13264,19 @@
     </row>
     <row r="168" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C168" s="25" t="s">
         <v>44</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F168" s="25"/>
       <c r="G168" s="5">
@@ -13417,7 +13324,7 @@
       <c r="V168" s="5">
         <v>2</v>
       </c>
-      <c r="W168" s="8">
+      <c r="W168" s="50">
         <v>2</v>
       </c>
       <c r="X168" s="7"/>
@@ -13425,19 +13332,19 @@
     </row>
     <row r="169" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C169" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F169" s="12"/>
       <c r="G169" s="7">
@@ -13488,7 +13395,7 @@
       <c r="V169" s="7">
         <v>2</v>
       </c>
-      <c r="W169" s="8">
+      <c r="W169" s="50">
         <v>1</v>
       </c>
       <c r="X169" s="33"/>
@@ -13496,19 +13403,19 @@
     </row>
     <row r="170" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B170" s="25" t="s">
         <v>102</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D170" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F170" s="25"/>
       <c r="G170" s="5">
@@ -13555,7 +13462,7 @@
       <c r="V170" s="5">
         <v>2</v>
       </c>
-      <c r="W170" s="8">
+      <c r="W170" s="50">
         <v>1</v>
       </c>
       <c r="X170" s="5"/>
@@ -13563,19 +13470,19 @@
     </row>
     <row r="171" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B171" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D171" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F171" s="12"/>
       <c r="G171" s="7">
@@ -13626,7 +13533,7 @@
       <c r="V171" s="7">
         <v>5</v>
       </c>
-      <c r="W171" s="8">
+      <c r="W171" s="50">
         <v>2</v>
       </c>
       <c r="X171" s="5"/>
@@ -13634,10 +13541,10 @@
     </row>
     <row r="172" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>36</v>
@@ -13695,7 +13602,7 @@
       <c r="V172" s="5">
         <v>1</v>
       </c>
-      <c r="W172" s="8">
+      <c r="W172" s="50">
         <v>2</v>
       </c>
       <c r="X172" s="5"/>
@@ -13703,10 +13610,10 @@
     </row>
     <row r="173" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>36</v>
@@ -13725,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="I173" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J173" s="7">
         <v>1</v>
@@ -13766,7 +13673,7 @@
       <c r="V173" s="7">
         <v>1</v>
       </c>
-      <c r="W173" s="8">
+      <c r="W173" s="50">
         <v>2</v>
       </c>
       <c r="X173" s="5"/>
@@ -13774,10 +13681,10 @@
     </row>
     <row r="174" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>31</v>
@@ -13786,7 +13693,7 @@
         <v>49</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="5">
@@ -13835,16 +13742,16 @@
       <c r="V174" s="5">
         <v>5</v>
       </c>
-      <c r="W174" s="8">
+      <c r="W174" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>31</v>
@@ -13853,7 +13760,7 @@
         <v>49</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F175" s="7"/>
       <c r="G175" s="7">
@@ -13904,16 +13811,16 @@
       <c r="V175" s="7">
         <v>5</v>
       </c>
-      <c r="W175" s="8">
+      <c r="W175" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>36</v>
@@ -13922,7 +13829,7 @@
         <v>37</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="5">
@@ -13971,16 +13878,16 @@
       <c r="V176" s="5">
         <v>2</v>
       </c>
-      <c r="W176" s="8">
+      <c r="W176" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>36</v>
@@ -13989,7 +13896,7 @@
         <v>37</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F177" s="7"/>
       <c r="G177" s="7">
@@ -14040,16 +13947,16 @@
       <c r="V177" s="7">
         <v>2</v>
       </c>
-      <c r="W177" s="8">
+      <c r="W177" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C178" s="33" t="s">
         <v>25</v>
@@ -14105,16 +14012,16 @@
       <c r="V178" s="33">
         <v>2</v>
       </c>
-      <c r="W178" s="8">
+      <c r="W178" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>25</v>
@@ -14123,7 +14030,7 @@
         <v>82</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F179" s="7"/>
       <c r="G179" s="7">
@@ -14174,16 +14081,16 @@
       <c r="V179" s="7">
         <v>1</v>
       </c>
-      <c r="W179" s="8">
+      <c r="W179" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>36</v>
@@ -14192,7 +14099,7 @@
         <v>37</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="5">
@@ -14241,16 +14148,16 @@
       <c r="V180" s="5">
         <v>1</v>
       </c>
-      <c r="W180" s="8">
+      <c r="W180" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>36</v>
@@ -14259,7 +14166,7 @@
         <v>37</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F181" s="7"/>
       <c r="G181" s="7">
@@ -14301,8 +14208,8 @@
       <c r="S181" s="8">
         <v>2</v>
       </c>
-      <c r="T181" s="8" t="s">
-        <v>226</v>
+      <c r="T181" s="8">
+        <v>2</v>
       </c>
       <c r="U181" s="8">
         <v>1</v>
@@ -14310,16 +14217,16 @@
       <c r="V181" s="7">
         <v>1</v>
       </c>
-      <c r="W181" s="8">
+      <c r="W181" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>36</v>
@@ -14328,7 +14235,7 @@
         <v>37</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G182" s="6">
         <v>2</v>
@@ -14378,16 +14285,16 @@
       <c r="V182" s="6">
         <v>3</v>
       </c>
-      <c r="W182" s="8">
+      <c r="W182" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>36</v>
@@ -14396,7 +14303,7 @@
         <v>37</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F183" s="7"/>
       <c r="G183" s="7">
@@ -14447,16 +14354,16 @@
       <c r="V183" s="7">
         <v>2</v>
       </c>
-      <c r="W183" s="8">
+      <c r="W183" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>36</v>
@@ -14465,7 +14372,7 @@
         <v>37</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G184" s="6">
         <v>2</v>
@@ -14509,16 +14416,16 @@
       <c r="V184" s="6">
         <v>3</v>
       </c>
-      <c r="W184" s="8">
+      <c r="W184" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>36</v>
@@ -14527,7 +14434,7 @@
         <v>37</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F185" s="7"/>
       <c r="G185" s="7">
@@ -14578,23 +14485,23 @@
       <c r="V185" s="7">
         <v>3</v>
       </c>
-      <c r="W185" s="8" t="s">
-        <v>231</v>
+      <c r="W185" s="50">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B186" s="13"/>
       <c r="C186" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F186" s="13"/>
       <c r="G186" s="6">
@@ -14639,20 +14546,20 @@
       <c r="V186" s="6">
         <v>4</v>
       </c>
-      <c r="W186" s="8">
+      <c r="W186" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>41</v>
@@ -14706,16 +14613,16 @@
       <c r="V187" s="7">
         <v>4</v>
       </c>
-      <c r="W187" s="8">
+      <c r="W187" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>36</v>
@@ -14724,7 +14631,7 @@
         <v>75</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F188" s="13"/>
       <c r="G188" s="6">
@@ -14772,16 +14679,16 @@
       <c r="V188" s="6">
         <v>1</v>
       </c>
-      <c r="W188" s="8">
+      <c r="W188" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C189" s="12" t="s">
         <v>36</v>
@@ -14841,16 +14748,16 @@
       <c r="V189" s="7">
         <v>1</v>
       </c>
-      <c r="W189" s="8">
+      <c r="W189" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>36</v>
@@ -14903,16 +14810,16 @@
       <c r="V190" s="6">
         <v>2</v>
       </c>
-      <c r="W190" s="8">
+      <c r="W190" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>36</v>
@@ -14972,16 +14879,16 @@
       <c r="V191" s="7">
         <v>2</v>
       </c>
-      <c r="W191" s="8" t="s">
-        <v>238</v>
+      <c r="W191" s="50">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C192" s="13" t="s">
         <v>36</v>
@@ -14990,7 +14897,7 @@
         <v>93</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F192" s="13"/>
       <c r="G192" s="6">
@@ -15041,16 +14948,16 @@
       <c r="V192" s="6">
         <v>2</v>
       </c>
-      <c r="W192" s="8">
+      <c r="W192" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C193" s="12" t="s">
         <v>36</v>
@@ -15081,10 +14988,10 @@
         <v>1</v>
       </c>
       <c r="M193" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N193" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O193" s="7">
         <v>2</v>
@@ -15110,13 +15017,13 @@
       <c r="V193" s="7">
         <v>2</v>
       </c>
-      <c r="W193" s="8">
+      <c r="W193" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>28</v>
@@ -15125,10 +15032,10 @@
         <v>25</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G194" s="6">
         <v>1</v>
@@ -15178,13 +15085,13 @@
       <c r="V194" s="6">
         <v>5</v>
       </c>
-      <c r="W194" s="8">
+      <c r="W194" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="40" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B195" s="40" t="s">
         <v>28</v>
@@ -15193,7 +15100,7 @@
         <v>25</v>
       </c>
       <c r="D195" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>41</v>
@@ -15208,10 +15115,11 @@
       <c r="O195" s="40"/>
       <c r="P195" s="40"/>
       <c r="V195" s="40"/>
+      <c r="W195" s="50"/>
     </row>
     <row r="196" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>98</v>
@@ -15223,10 +15131,10 @@
         <v>82</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G196" s="6">
         <v>2</v>
@@ -15268,13 +15176,13 @@
       <c r="V196" s="6">
         <v>4</v>
       </c>
-      <c r="W196" s="8">
+      <c r="W196" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>98</v>
@@ -15286,10 +15194,10 @@
         <v>82</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G197" s="7">
         <v>1</v>
@@ -15339,13 +15247,13 @@
       <c r="V197" s="7">
         <v>4</v>
       </c>
-      <c r="W197" s="8">
+      <c r="W197" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>102</v>
@@ -15354,10 +15262,10 @@
         <v>25</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G198" s="6">
         <v>1</v>
@@ -15401,13 +15309,13 @@
       <c r="V198" s="6">
         <v>5</v>
       </c>
-      <c r="W198" s="8">
+      <c r="W198" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="38" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B199" s="38" t="s">
         <v>102</v>
@@ -15416,10 +15324,10 @@
         <v>25</v>
       </c>
       <c r="D199" s="38" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F199" s="38"/>
       <c r="G199" s="5">
@@ -15432,7 +15340,7 @@
         <v>1</v>
       </c>
       <c r="J199" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K199" s="8">
         <v>1</v>
@@ -15470,16 +15378,16 @@
       <c r="V199" s="5">
         <v>5</v>
       </c>
-      <c r="W199" s="8">
+      <c r="W199" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>36</v>
@@ -15488,7 +15396,7 @@
         <v>37</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6">
@@ -15535,16 +15443,16 @@
       <c r="V200" s="6">
         <v>2</v>
       </c>
-      <c r="W200" s="8">
+      <c r="W200" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>36</v>
@@ -15604,13 +15512,13 @@
       <c r="V201" s="7">
         <v>2</v>
       </c>
-      <c r="W201" s="8">
+      <c r="W201" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>28</v>
@@ -15622,10 +15530,10 @@
         <v>37</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G202" s="6">
         <v>2</v>
@@ -15671,13 +15579,13 @@
       <c r="V202" s="6">
         <v>4</v>
       </c>
-      <c r="W202" s="8">
+      <c r="W202" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>28</v>
@@ -15692,7 +15600,7 @@
         <v>41</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G203" s="7">
         <v>2</v>
@@ -15742,16 +15650,16 @@
       <c r="V203" s="7">
         <v>4</v>
       </c>
-      <c r="W203" s="8">
+      <c r="W203" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="16" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C204" s="13" t="s">
         <v>44</v>
@@ -15807,16 +15715,16 @@
       <c r="V204" s="6">
         <v>2</v>
       </c>
-      <c r="W204" s="8">
+      <c r="W204" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="41" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C205" s="12" t="s">
         <v>44</v>
@@ -15828,7 +15736,7 @@
         <v>41</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G205" s="7">
         <v>2</v>
@@ -15878,13 +15786,13 @@
       <c r="V205" s="7">
         <v>2</v>
       </c>
-      <c r="W205" s="8">
+      <c r="W205" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>98</v>
@@ -15943,13 +15851,13 @@
       <c r="V206" s="6">
         <v>4</v>
       </c>
-      <c r="W206" s="8">
+      <c r="W206" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>98</v>
@@ -15961,7 +15869,7 @@
         <v>82</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F207" s="7"/>
       <c r="G207" s="7">
@@ -15974,7 +15882,7 @@
         <v>1</v>
       </c>
       <c r="J207" s="42" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K207" s="8">
         <v>1</v>
@@ -16012,16 +15920,16 @@
       <c r="V207" s="7">
         <v>4</v>
       </c>
-      <c r="W207" s="8">
+      <c r="W207" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208" s="13" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C208" s="13" t="s">
         <v>36</v>
@@ -16030,7 +15938,7 @@
         <v>93</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F208" s="13"/>
       <c r="G208" s="6">
@@ -16079,16 +15987,16 @@
       <c r="V208" s="6">
         <v>2</v>
       </c>
-      <c r="W208" s="8">
+      <c r="W208" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C209" s="12" t="s">
         <v>36</v>
@@ -16097,11 +16005,11 @@
         <v>93</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F209" s="12"/>
       <c r="G209" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H209" s="7">
         <v>1</v>
@@ -16148,13 +16056,13 @@
       <c r="V209" s="7">
         <v>2</v>
       </c>
-      <c r="W209" s="8">
+      <c r="W209" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>98</v>
@@ -16166,7 +16074,7 @@
         <v>82</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6">
@@ -16213,13 +16121,13 @@
       <c r="V210" s="6">
         <v>4</v>
       </c>
-      <c r="W210" s="8">
+      <c r="W210" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>98</v>
@@ -16282,13 +16190,13 @@
       <c r="V211" s="7">
         <v>4</v>
       </c>
-      <c r="W211" s="8">
+      <c r="W211" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>28</v>
@@ -16347,13 +16255,13 @@
       <c r="V212" s="6">
         <v>5</v>
       </c>
-      <c r="W212" s="8">
+      <c r="W212" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>28</v>
@@ -16416,16 +16324,16 @@
       <c r="V213" s="7">
         <v>1</v>
       </c>
-      <c r="W213" s="8" t="s">
-        <v>261</v>
+      <c r="W213" s="50">
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:23" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>36</v>
@@ -16434,7 +16342,7 @@
         <v>37</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F214" s="6"/>
       <c r="G214" s="6">
@@ -16481,16 +16389,16 @@
       <c r="V214" s="6">
         <v>3</v>
       </c>
-      <c r="W214" s="8">
+      <c r="W214" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>36</v>
@@ -16550,28 +16458,28 @@
       <c r="V215" s="7">
         <v>3</v>
       </c>
-      <c r="W215" s="8">
+      <c r="W215" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" s="13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F216" s="13" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G216" s="6">
         <v>2</v>
@@ -16617,28 +16525,28 @@
       <c r="V216" s="6">
         <v>1</v>
       </c>
-      <c r="W216" s="8">
+      <c r="W216" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C217" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F217" s="12" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G217" s="7">
         <v>2</v>
@@ -16688,22 +16596,22 @@
       <c r="V217" s="7">
         <v>1</v>
       </c>
-      <c r="W217" s="8" t="s">
-        <v>261</v>
+      <c r="W217" s="50">
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>41</v>
@@ -16757,25 +16665,25 @@
       <c r="V218" s="6">
         <v>2</v>
       </c>
-      <c r="W218" s="8">
+      <c r="W218" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="7">
@@ -16826,13 +16734,13 @@
       <c r="V219" s="7">
         <v>2</v>
       </c>
-      <c r="W219" s="8">
+      <c r="W219" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>63</v>
@@ -16844,7 +16752,7 @@
         <v>37</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F220" s="6"/>
       <c r="G220" s="6">
@@ -16893,13 +16801,13 @@
       <c r="V220" s="6">
         <v>3</v>
       </c>
-      <c r="W220" s="8">
+      <c r="W220" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>63</v>
@@ -16911,7 +16819,7 @@
         <v>37</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F221" s="7"/>
       <c r="G221" s="7">
@@ -16926,8 +16834,8 @@
       <c r="J221" s="7">
         <v>1</v>
       </c>
-      <c r="K221" s="8" t="s">
-        <v>270</v>
+      <c r="K221" s="8">
+        <v>2</v>
       </c>
       <c r="L221" s="8">
         <v>1</v>
@@ -16962,13 +16870,13 @@
       <c r="V221" s="7">
         <v>1</v>
       </c>
-      <c r="W221" s="8">
+      <c r="W221" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>98</v>
@@ -16980,7 +16888,7 @@
         <v>82</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F222" s="6"/>
       <c r="G222" s="6">
@@ -17027,13 +16935,13 @@
       <c r="V222" s="6">
         <v>4</v>
       </c>
-      <c r="W222" s="8">
+      <c r="W222" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:23" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>98</v>
@@ -17045,7 +16953,7 @@
         <v>82</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="7">
@@ -17096,16 +17004,16 @@
       <c r="V223" s="7">
         <v>4</v>
       </c>
-      <c r="W223" s="8">
+      <c r="W223" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>36</v>
@@ -17114,7 +17022,7 @@
         <v>37</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F224" s="5"/>
       <c r="G224" s="5">
@@ -17163,16 +17071,16 @@
       <c r="V224" s="5">
         <v>2</v>
       </c>
-      <c r="W224" s="8">
+      <c r="W224" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="22" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B225" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C225" s="22" t="s">
         <v>36</v>
@@ -17181,10 +17089,10 @@
         <v>37</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F225" s="22" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G225" s="5">
         <v>1</v>
@@ -17234,16 +17142,16 @@
       <c r="V225" s="5">
         <v>2</v>
       </c>
-      <c r="W225" s="8">
+      <c r="W225" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>36</v>
@@ -17252,7 +17160,7 @@
         <v>37</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F226" s="5"/>
       <c r="G226" s="5">
@@ -17301,16 +17209,16 @@
       <c r="V226" s="5">
         <v>2</v>
       </c>
-      <c r="W226" s="8">
+      <c r="W226" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>36</v>
@@ -17370,16 +17278,16 @@
       <c r="V227" s="7">
         <v>2</v>
       </c>
-      <c r="W227" s="8">
+      <c r="W227" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>36</v>
@@ -17388,7 +17296,7 @@
         <v>37</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F228" s="5"/>
       <c r="G228" s="5">
@@ -17437,16 +17345,16 @@
       <c r="V228" s="5">
         <v>2</v>
       </c>
-      <c r="W228" s="8">
+      <c r="W228" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>36</v>
@@ -17506,16 +17414,16 @@
       <c r="V229" s="7">
         <v>2</v>
       </c>
-      <c r="W229" s="8">
+      <c r="W229" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>36</v>
@@ -17573,16 +17481,16 @@
       <c r="V230" s="5">
         <v>1</v>
       </c>
-      <c r="W230" s="8">
+      <c r="W230" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>36</v>
@@ -17642,28 +17550,28 @@
       <c r="V231" s="7">
         <v>1</v>
       </c>
-      <c r="W231" s="8">
+      <c r="W231" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="47" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B232" s="47" t="s">
         <v>102</v>
       </c>
       <c r="C232" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D232" s="47" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F232" s="47" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G232" s="5">
         <v>2</v>
@@ -17711,28 +17619,28 @@
       <c r="V232" s="5">
         <v>5</v>
       </c>
-      <c r="W232" s="8">
+      <c r="W232" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="47" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B233" s="47" t="s">
         <v>102</v>
       </c>
       <c r="C233" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D233" s="47" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F233" s="47" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G233" s="5">
         <v>2</v>
@@ -17782,16 +17690,16 @@
       <c r="V233" s="5">
         <v>5</v>
       </c>
-      <c r="W233" s="8">
+      <c r="W233" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>36</v>
@@ -17849,16 +17757,16 @@
       <c r="V234" s="5">
         <v>2</v>
       </c>
-      <c r="W234" s="8">
+      <c r="W234" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>36</v>
@@ -17918,13 +17826,13 @@
       <c r="V235" s="7">
         <v>2</v>
       </c>
-      <c r="W235" s="8">
+      <c r="W235" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>70</v>
@@ -17985,13 +17893,13 @@
       <c r="V236" s="5">
         <v>1</v>
       </c>
-      <c r="W236" s="8">
+      <c r="W236" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>70</v>
@@ -18003,7 +17911,7 @@
         <v>37</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F237" s="7"/>
       <c r="G237" s="7">
@@ -18054,16 +17962,16 @@
       <c r="V237" s="7">
         <v>1</v>
       </c>
-      <c r="W237" s="8">
+      <c r="W237" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:23" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>36</v>
@@ -18072,10 +17980,10 @@
         <v>37</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G238" s="5">
         <v>2</v>
@@ -18123,16 +18031,16 @@
       <c r="V238" s="5">
         <v>1</v>
       </c>
-      <c r="W238" s="8">
+      <c r="W238" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>36</v>
@@ -18141,10 +18049,10 @@
         <v>37</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G239" s="7">
         <v>2</v>
@@ -18194,22 +18102,22 @@
       <c r="V239" s="7">
         <v>1</v>
       </c>
-      <c r="W239" s="8">
+      <c r="W239" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="25" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B240" s="25" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C240" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>41</v>
@@ -18240,7 +18148,7 @@
         <v>2</v>
       </c>
       <c r="O240" s="5" t="s">
-        <v>292</v>
+        <v>28</v>
       </c>
       <c r="P240" s="5">
         <v>2</v>
@@ -18261,22 +18169,22 @@
       <c r="V240" s="5">
         <v>2</v>
       </c>
-      <c r="W240" s="8">
+      <c r="W240" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C241" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>41</v>
@@ -18330,16 +18238,16 @@
       <c r="V241" s="7">
         <v>2</v>
       </c>
-      <c r="W241" s="8">
+      <c r="W241" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:23" s="44" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="35" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C242" s="25" t="s">
         <v>44</v>
@@ -18397,16 +18305,16 @@
       <c r="V242" s="5">
         <v>1</v>
       </c>
-      <c r="W242" s="8">
+      <c r="W242" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:23" s="44" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A243" s="41" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C243" s="12" t="s">
         <v>44</v>
@@ -18415,7 +18323,7 @@
         <v>40</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F243" s="12"/>
       <c r="G243" s="7">
@@ -18466,16 +18374,16 @@
       <c r="V243" s="7">
         <v>1</v>
       </c>
-      <c r="W243" s="8">
+      <c r="W243" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>48</v>
@@ -18533,16 +18441,16 @@
       <c r="V244" s="5">
         <v>5</v>
       </c>
-      <c r="W244" s="8">
+      <c r="W244" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="22" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B245" s="22" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C245" s="22" t="s">
         <v>48</v>
@@ -18551,10 +18459,10 @@
         <v>37</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F245" s="22" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G245" s="5">
         <v>2</v>
@@ -18604,16 +18512,16 @@
       <c r="V245" s="5">
         <v>5</v>
       </c>
-      <c r="W245" s="8">
+      <c r="W245" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>36</v>
@@ -18671,16 +18579,16 @@
       <c r="V246" s="5">
         <v>2</v>
       </c>
-      <c r="W246" s="8">
+      <c r="W246" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>36</v>
@@ -18689,7 +18597,7 @@
         <v>37</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F247" s="7"/>
       <c r="G247" s="7">
@@ -18740,16 +18648,16 @@
       <c r="V247" s="7">
         <v>2</v>
       </c>
-      <c r="W247" s="8">
+      <c r="W247" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="43" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B248" s="43" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C248" s="43" t="s">
         <v>48</v>
@@ -18779,14 +18687,14 @@
       <c r="T248" s="8"/>
       <c r="U248" s="8"/>
       <c r="V248" s="43"/>
-      <c r="W248" s="8"/>
+      <c r="W248" s="50"/>
     </row>
     <row r="249" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>48</v>
@@ -18808,7 +18716,7 @@
         <v>3</v>
       </c>
       <c r="J249" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K249" s="8">
         <v>1</v>
@@ -18846,22 +18754,22 @@
       <c r="V249" s="7">
         <v>1</v>
       </c>
-      <c r="W249" s="8">
+      <c r="W249" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="25" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B250" s="25" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C250" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E250" s="5" t="s">
         <v>41</v>
@@ -18913,22 +18821,22 @@
       <c r="V250" s="5">
         <v>1</v>
       </c>
-      <c r="W250" s="8">
+      <c r="W250" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="12" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C251" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E251" s="5" t="s">
         <v>41</v>
@@ -18982,13 +18890,13 @@
       <c r="V251" s="7">
         <v>1</v>
       </c>
-      <c r="W251" s="8">
+      <c r="W251" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>98</v>
@@ -19000,7 +18908,7 @@
         <v>82</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F252" s="5"/>
       <c r="G252" s="5">
@@ -19049,13 +18957,13 @@
       <c r="V252" s="5">
         <v>3</v>
       </c>
-      <c r="W252" s="8">
+      <c r="W252" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>98</v>
@@ -19118,13 +19026,13 @@
       <c r="V253" s="7">
         <v>4</v>
       </c>
-      <c r="W253" s="8">
+      <c r="W253" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>70</v>
@@ -19133,10 +19041,10 @@
         <v>36</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F254" s="5"/>
       <c r="G254" s="5">
@@ -19185,13 +19093,13 @@
       <c r="V254" s="5">
         <v>1</v>
       </c>
-      <c r="W254" s="8">
+      <c r="W254" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:23" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>70</v>
@@ -19200,10 +19108,10 @@
         <v>36</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F255" s="7"/>
       <c r="G255" s="7">
@@ -19254,25 +19162,25 @@
       <c r="V255" s="7">
         <v>1</v>
       </c>
-      <c r="W255" s="8">
+      <c r="W255" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A256" s="25" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B256" s="25" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C256" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D256" s="25" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F256" s="25"/>
       <c r="G256" s="5">
@@ -19320,25 +19228,25 @@
       <c r="V256" s="5">
         <v>5</v>
       </c>
-      <c r="W256" s="8">
+      <c r="W256" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A257" s="12" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C257" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F257" s="12"/>
       <c r="G257" s="7">
@@ -19351,7 +19259,7 @@
         <v>1</v>
       </c>
       <c r="J257" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K257" s="8">
         <v>1</v>
@@ -19389,13 +19297,13 @@
       <c r="V257" s="7">
         <v>5</v>
       </c>
-      <c r="W257" s="8">
+      <c r="W257" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>79</v>
@@ -19407,7 +19315,7 @@
         <v>95</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G258" s="5">
         <v>2</v>
@@ -19454,13 +19362,13 @@
       <c r="V258" s="5">
         <v>2</v>
       </c>
-      <c r="W258" s="8">
+      <c r="W258" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>79</v>
@@ -19472,7 +19380,7 @@
         <v>95</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F259" s="7"/>
       <c r="G259" s="7">
@@ -19523,7 +19431,7 @@
       <c r="V259" s="7">
         <v>2</v>
       </c>
-      <c r="W259" s="8">
+      <c r="W259" s="50">
         <v>2</v>
       </c>
     </row>
@@ -19562,134 +19470,106 @@
       <c r="T268" s="8"/>
       <c r="U268" s="8"/>
       <c r="V268" s="5"/>
-      <c r="W268" s="8"/>
+      <c r="W268" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:W169" xr:uid="{FD8261BF-A4F9-4A43-8159-CDF6ED9B10B0}"/>
-  <conditionalFormatting sqref="F259">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Bericht">
-      <formula>NOT(ISERROR(SEARCH("Bericht",F259)))</formula>
+  <conditionalFormatting sqref="E1:E6 E53:E55 E57:E60 E74:E110 E112:E162">
+    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="Case">
+      <formula>NOT(ISERROR(SEARCH("Case",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Bericht ">
-      <formula>NOT(ISERROR(SEARCH("Bericht ",F259)))</formula>
+    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text=" Bericht ">
+      <formula>NOT(ISERROR(SEARCH(" Bericht ",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text=" Bericht ">
-      <formula>NOT(ISERROR(SEARCH(" Bericht ",F259)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Case">
-      <formula>NOT(ISERROR(SEARCH("Case",F259)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Bericht">
-      <formula>NOT(ISERROR(SEARCH("Bericht",F90)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Bericht ">
-      <formula>NOT(ISERROR(SEARCH("Bericht ",F90)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text=" Bericht ">
-      <formula>NOT(ISERROR(SEARCH(" Bericht ",F90)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Case">
-      <formula>NOT(ISERROR(SEARCH("Case",F90)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F268">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Case">
-      <formula>NOT(ISERROR(SEARCH("Case",F268)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Bericht">
-      <formula>NOT(ISERROR(SEARCH("Bericht",F268)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Bericht ">
-      <formula>NOT(ISERROR(SEARCH("Bericht ",F268)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text=" Bericht ">
-      <formula>NOT(ISERROR(SEARCH(" Bericht ",F268)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E6 E53:E55 E57:E60 E74:E110 E112:E162">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Bericht">
-      <formula>NOT(ISERROR(SEARCH("Bericht",E1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Bericht ">
+    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="Bericht ">
       <formula>NOT(ISERROR(SEARCH("Bericht ",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text=" Bericht ">
-      <formula>NOT(ISERROR(SEARCH(" Bericht ",E1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Case">
-      <formula>NOT(ISERROR(SEARCH("Case",E1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="Case">
-      <formula>NOT(ISERROR(SEARCH("Case",E164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="Bericht">
-      <formula>NOT(ISERROR(SEARCH("Bericht",E164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Bericht ">
-      <formula>NOT(ISERROR(SEARCH("Bericht ",E164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text=" Bericht ">
-      <formula>NOT(ISERROR(SEARCH(" Bericht ",E164)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E166:E175">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Bericht">
-      <formula>NOT(ISERROR(SEARCH("Bericht",E166)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Bericht ">
-      <formula>NOT(ISERROR(SEARCH("Bericht ",E166)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text=" Bericht ">
-      <formula>NOT(ISERROR(SEARCH(" Bericht ",E166)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Case">
-      <formula>NOT(ISERROR(SEARCH("Case",E166)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E165">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Bericht">
-      <formula>NOT(ISERROR(SEARCH("Bericht",E165)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Bericht ">
-      <formula>NOT(ISERROR(SEARCH("Bericht ",E165)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text=" Bericht ">
-      <formula>NOT(ISERROR(SEARCH(" Bericht ",E165)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Case">
-      <formula>NOT(ISERROR(SEARCH("Case",E165)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Bericht">
+      <formula>NOT(ISERROR(SEARCH("Bericht",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:E50">
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="Case">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="Bericht ">
+      <formula>NOT(ISERROR(SEARCH("Bericht ",E35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="Case">
       <formula>NOT(ISERROR(SEARCH("Case",E35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="Bericht">
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="Bericht">
       <formula>NOT(ISERROR(SEARCH("Bericht",E35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="19" operator="containsText" text="Bericht ">
-      <formula>NOT(ISERROR(SEARCH("Bericht ",E35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="20" operator="containsText" text=" Bericht ">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text=" Bericht ">
       <formula>NOT(ISERROR(SEARCH(" Bericht ",E35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62 E67 E69:E71">
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Bericht">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="Bericht">
       <formula>NOT(ISERROR(SEARCH("Bericht",E62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="Bericht ">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Bericht ">
       <formula>NOT(ISERROR(SEARCH("Bericht ",E62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text=" Bericht ">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text=" Bericht ">
       <formula>NOT(ISERROR(SEARCH(" Bericht ",E62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="Case">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Case">
       <formula>NOT(ISERROR(SEARCH("Case",E62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164:E175">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Bericht ">
+      <formula>NOT(ISERROR(SEARCH("Bericht ",E164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text=" Bericht ">
+      <formula>NOT(ISERROR(SEARCH(" Bericht ",E164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Case">
+      <formula>NOT(ISERROR(SEARCH("Case",E164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Bericht">
+      <formula>NOT(ISERROR(SEARCH("Bericht",E164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90">
+    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="Bericht">
+      <formula>NOT(ISERROR(SEARCH("Bericht",F90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="30" operator="containsText" text="Bericht ">
+      <formula>NOT(ISERROR(SEARCH("Bericht ",F90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text=" Bericht ">
+      <formula>NOT(ISERROR(SEARCH(" Bericht ",F90)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="Case">
+      <formula>NOT(ISERROR(SEARCH("Case",F90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F259">
+    <cfRule type="containsText" dxfId="7" priority="33" operator="containsText" text="Bericht">
+      <formula>NOT(ISERROR(SEARCH("Bericht",F259)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="34" operator="containsText" text="Bericht ">
+      <formula>NOT(ISERROR(SEARCH("Bericht ",F259)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="35" operator="containsText" text=" Bericht ">
+      <formula>NOT(ISERROR(SEARCH(" Bericht ",F259)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="36" operator="containsText" text="Case">
+      <formula>NOT(ISERROR(SEARCH("Case",F259)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F268">
+    <cfRule type="containsText" dxfId="3" priority="25" operator="containsText" text="Case">
+      <formula>NOT(ISERROR(SEARCH("Case",F268)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="26" operator="containsText" text="Bericht">
+      <formula>NOT(ISERROR(SEARCH("Bericht",F268)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="27" operator="containsText" text="Bericht ">
+      <formula>NOT(ISERROR(SEARCH("Bericht ",F268)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="28" operator="containsText" text=" Bericht ">
+      <formula>NOT(ISERROR(SEARCH(" Bericht ",F268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
